--- a/Clase 7 - PowerBI/serie_salarios.xlsx
+++ b/Clase 7 - PowerBI/serie_salarios.xlsx
@@ -1,169 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\curso_aset\Clase 7 - PowerBI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED2B30-F153-4FBD-870C-6FEC360EFBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="serie_salarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="serie_salarios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t xml:space="preserve">anio_trim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salario_promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023T4</t>
+    <t>anio_trim</t>
+  </si>
+  <si>
+    <t>salario_promedio</t>
+  </si>
+  <si>
+    <t>2003T3</t>
+  </si>
+  <si>
+    <t>2003T4</t>
+  </si>
+  <si>
+    <t>2004T1</t>
+  </si>
+  <si>
+    <t>2004T2</t>
+  </si>
+  <si>
+    <t>2004T3</t>
+  </si>
+  <si>
+    <t>2004T4</t>
+  </si>
+  <si>
+    <t>2005T1</t>
+  </si>
+  <si>
+    <t>2005T2</t>
+  </si>
+  <si>
+    <t>2005T3</t>
+  </si>
+  <si>
+    <t>2005T4</t>
+  </si>
+  <si>
+    <t>2006T1</t>
+  </si>
+  <si>
+    <t>2006T2</t>
+  </si>
+  <si>
+    <t>2006T3</t>
+  </si>
+  <si>
+    <t>2006T4</t>
+  </si>
+  <si>
+    <t>2007T1</t>
+  </si>
+  <si>
+    <t>2016T2</t>
+  </si>
+  <si>
+    <t>2016T3</t>
+  </si>
+  <si>
+    <t>2016T4</t>
+  </si>
+  <si>
+    <t>2017T1</t>
+  </si>
+  <si>
+    <t>2017T2</t>
+  </si>
+  <si>
+    <t>2017T3</t>
+  </si>
+  <si>
+    <t>2017T4</t>
+  </si>
+  <si>
+    <t>2018T1</t>
+  </si>
+  <si>
+    <t>2018T2</t>
+  </si>
+  <si>
+    <t>2018T3</t>
+  </si>
+  <si>
+    <t>2018T4</t>
+  </si>
+  <si>
+    <t>2019T1</t>
+  </si>
+  <si>
+    <t>2019T2</t>
+  </si>
+  <si>
+    <t>2019T3</t>
+  </si>
+  <si>
+    <t>2019T4</t>
+  </si>
+  <si>
+    <t>2020T1</t>
+  </si>
+  <si>
+    <t>2020T2</t>
+  </si>
+  <si>
+    <t>2020T3</t>
+  </si>
+  <si>
+    <t>2020T4</t>
+  </si>
+  <si>
+    <t>2021T1</t>
+  </si>
+  <si>
+    <t>2021T2</t>
+  </si>
+  <si>
+    <t>2021T3</t>
+  </si>
+  <si>
+    <t>2021T4</t>
+  </si>
+  <si>
+    <t>2022T1</t>
+  </si>
+  <si>
+    <t>2022T2</t>
+  </si>
+  <si>
+    <t>2022T3</t>
+  </si>
+  <si>
+    <t>2022T4</t>
+  </si>
+  <si>
+    <t>2023T1</t>
+  </si>
+  <si>
+    <t>2023T2</t>
+  </si>
+  <si>
+    <t>2023T3</t>
+  </si>
+  <si>
+    <t>2023T4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,13 +199,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,14 +497,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,376 +517,376 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1">
         <v>565.761397634216</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>595.764905631567</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="1">
+        <v>595.76490563156699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>642.736062593439</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="1">
+        <v>642.73606259343899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>616.97097255891</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="1">
+        <v>616.97097255891003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
-        <v>637.767873474682</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="1">
+        <v>637.76787347468201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
-        <v>656.625264502209</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" s="1">
+        <v>656.62526450220901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
-        <v>702.843087148649</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="1">
+        <v>702.84308714864903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
-        <v>722.311912355936</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="1">
+        <v>722.31191235593599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1">
         <v>781.428059494732</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
-        <v>821.280945739189</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="1">
+        <v>821.28094573918895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
-        <v>875.108890140958</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="1">
+        <v>875.10889014095801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
-        <v>910.116220893472</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" s="1">
+        <v>910.11622089347202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
-        <v>956.831122812404</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="1">
+        <v>956.83112281240403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1">
         <v>1016.14691602007</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
-        <v>1076.49478202728</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" s="1">
+        <v>1076.4947820272801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
-        <v>10466.9525524873</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" s="1">
+        <v>10466.952552487301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1">
         <v>11096.5102427973</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
-        <v>11867.9401297961</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" s="1">
+        <v>11867.940129796099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1">
         <v>12760.2418005323</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
-        <v>13374.3562256182</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" s="1">
+        <v>13374.356225618199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="1">
         <v>14121.3370303705</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n">
-        <v>14934.0144224896</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" s="1">
+        <v>14934.014422489599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="1">
         <v>16293.2389591307</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n">
-        <v>16827.993196194</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" s="1">
+        <v>16827.993196193998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n">
-        <v>17538.4136688474</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" s="1">
+        <v>17538.413668847399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
-        <v>19298.65443349</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" s="1">
+        <v>19298.654433489999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
-        <v>20639.9441340603</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" s="1">
+        <v>20639.944134060301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n">
-        <v>22658.4225191694</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" s="1">
+        <v>22658.422519169399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="1">
         <v>25233.6075235477</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n">
-        <v>27385.5497743777</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" s="1">
+        <v>27385.549774377701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n">
-        <v>30080.2447543352</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32" s="1">
+        <v>30080.244754335199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n">
-        <v>34410.2393395462</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="B33" s="1">
+        <v>34410.239339546199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="1">
         <v>34206.1239920644</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="n">
-        <v>36245.6623682963</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35" s="1">
+        <v>36245.662368296304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="n">
-        <v>42294.1255929465</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36" s="1">
+        <v>42294.125592946497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
-        <v>47231.5216138811</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" s="1">
+        <v>47231.521613881101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
-        <v>50849.0230353884</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38" s="1">
+        <v>50849.023035388404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
-        <v>55822.9890136529</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" s="1">
+        <v>55822.989013652899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
-        <v>64755.3216929455</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="B40" s="1">
+        <v>64755.321692945501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
-        <v>70678.1957077615</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41" s="1">
+        <v>70678.195707761493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
-        <v>83310.4624936965</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="B42" s="1">
+        <v>83310.462493696497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="1">
         <v>100505.681530898</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
-        <v>120972.884179412</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="B44" s="1">
+        <v>120972.88417941199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="n">
-        <v>149048.330966035</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="B45" s="1">
+        <v>149048.33096603499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="n">
-        <v>192286.561831786</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="B46" s="1">
+        <v>192286.56183178601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="n">
-        <v>262718.347926673</v>
+      <c r="B47" s="1">
+        <v>262718.34792667301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>